--- a/MPC+FF/parafoil_parameters_SRC.xlsx
+++ b/MPC+FF/parafoil_parameters_SRC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coop\MATLAB Drive\小笠原研_空中回収\経路計画用モデル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coop\MATLAB Drive\senior_thesis_MAR\MPC+FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68E82F5-23BE-4559-9E4E-98441B288C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F5B87-F15E-432C-81D7-DBC9E06B1F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケーリング" sheetId="1" r:id="rId1"/>
@@ -1290,7 +1290,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F058AAE-138D-4CEB-A156-F00DA17A0BA4}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2018,7 +2018,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -2325,7 +2325,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/MPC+FF/parafoil_parameters_SRC.xlsx
+++ b/MPC+FF/parafoil_parameters_SRC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coop\MATLAB Drive\senior_thesis_MAR\MPC+FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F5B87-F15E-432C-81D7-DBC9E06B1F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687AD655-B71B-4768-8E18-91F46E262F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="21820" windowHeight="13900" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケーリング" sheetId="1" r:id="rId1"/>
@@ -1957,13 +1957,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F058AAE-138D-4CEB-A156-F00DA17A0BA4}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2208,7 +2209,7 @@
         <v>48</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>

--- a/MPC+FF/parafoil_parameters_SRC.xlsx
+++ b/MPC+FF/parafoil_parameters_SRC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coop\MATLAB Drive\senior_thesis_MAR\MPC+FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687AD655-B71B-4768-8E18-91F46E262F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7080CA-F098-4BFA-AFCD-DDCF5BB8D35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="21820" windowHeight="13900" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="16200" windowHeight="9970" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケーリング" sheetId="1" r:id="rId1"/>
@@ -2209,7 +2209,7 @@
         <v>48</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>

--- a/MPC+FF/parafoil_parameters_SRC.xlsx
+++ b/MPC+FF/parafoil_parameters_SRC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coop\MATLAB Drive\senior_thesis_MAR\MPC+FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7080CA-F098-4BFA-AFCD-DDCF5BB8D35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A148954F-C270-44AB-A964-61F37770707B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="16200" windowHeight="9970" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケーリング" sheetId="1" r:id="rId1"/>
@@ -402,9 +402,9 @@
       <sheetName val="Aircraft_Model_origin"/>
       <sheetName val="Inertia"/>
       <sheetName val="Payload_Model"/>
-      <sheetName val="Aircraft_Model"/>
       <sheetName val="Aero_Coeffs"/>
       <sheetName val="Simulation_Settings"/>
+      <sheetName val="Aircraft_Model"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -586,6 +586,213 @@
         </row>
         <row r="2">
           <cell r="A2" t="str">
+            <v>C_L_0</v>
+          </cell>
+          <cell r="B2">
+            <v>0.5</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>揚力係数 (ゼロ迎角)</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>C_L_alpha</v>
+          </cell>
+          <cell r="B3">
+            <v>1.7190000000000001</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>/rad</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>揚力係数 (迎角依存)</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>C_L_delta_a</v>
+          </cell>
+          <cell r="B4">
+            <v>1E-4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>C_L_delta_s</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>/rad</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>揚力係数 (シンメトリック入力)</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>C_D_0</v>
+          </cell>
+          <cell r="B6">
+            <v>0.2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>抗力係数 (ゼロ迎力)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>C_D_alpha</v>
+          </cell>
+          <cell r="B7">
+            <v>0.7</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>/rad^2</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>抗力係数 (迎角二乗依存)</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>C_D_delta_a</v>
+          </cell>
+          <cell r="B8">
+            <v>1E-4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>C_D_delta_s</v>
+          </cell>
+          <cell r="B9">
+            <v>0.57999999999999996</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>/rad</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>抗力係数 (フラップ依存)</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>C_m_0</v>
+          </cell>
+          <cell r="B10">
+            <v>0.13969999999999999</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>ピッチングモーメント係数 (迎角依存)</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>C_m_alpha</v>
+          </cell>
+          <cell r="B11">
+            <v>-1.4308000000000001</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>/rad</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>ピッチングモーメント係数 (ゼロ迎角)</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>C_m_q</v>
+          </cell>
+          <cell r="B12">
+            <v>-0.22520999999999999</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>ピッチ減衰係数</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Cl_phi</v>
+          </cell>
+          <cell r="B13">
+            <v>-0.04</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Cl_p</v>
+          </cell>
+          <cell r="B14">
+            <v>-0.08</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Cl_delta_a</v>
+          </cell>
+          <cell r="B15">
+            <v>-1.0000000000000001E-5</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Cn_r</v>
+          </cell>
+          <cell r="B16">
+            <v>-1.2E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Cn_delta_a</v>
+          </cell>
+          <cell r="B17">
+            <v>-8.0000000000000007E-5</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>C_Y_beta</v>
+          </cell>
+          <cell r="B18">
+            <v>-0.1</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>横力係数 (対 横滑り角 beta)</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Parameter</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Value</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Unit</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Description</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
             <v>M_canopy</v>
           </cell>
           <cell r="B2">
@@ -753,213 +960,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Parameter</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Value</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Unit</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Description</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>C_L_0</v>
-          </cell>
-          <cell r="B2">
-            <v>0.5</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>揚力係数 (ゼロ迎角)</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>C_L_alpha</v>
-          </cell>
-          <cell r="B3">
-            <v>1.7190000000000001</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>/rad</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>揚力係数 (迎角依存)</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>C_L_delta_a</v>
-          </cell>
-          <cell r="B4">
-            <v>1E-4</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>C_L_delta_s</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>/rad</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>揚力係数 (シンメトリック入力)</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>C_D_0</v>
-          </cell>
-          <cell r="B6">
-            <v>0.2</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>抗力係数 (ゼロ迎力)</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>C_D_alpha</v>
-          </cell>
-          <cell r="B7">
-            <v>0.7</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>/rad^2</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>抗力係数 (迎角二乗依存)</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>C_D_delta_a</v>
-          </cell>
-          <cell r="B8">
-            <v>1E-4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>C_D_delta_s</v>
-          </cell>
-          <cell r="B9">
-            <v>0.57999999999999996</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>/rad</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>抗力係数 (フラップ依存)</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>C_m_0</v>
-          </cell>
-          <cell r="B10">
-            <v>0.13969999999999999</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>ピッチングモーメント係数 (迎角依存)</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>C_m_alpha</v>
-          </cell>
-          <cell r="B11">
-            <v>-1.4308000000000001</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>/rad</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>ピッチングモーメント係数 (ゼロ迎角)</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>C_m_q</v>
-          </cell>
-          <cell r="B12">
-            <v>-0.22520999999999999</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>ピッチ減衰係数</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Cl_phi</v>
-          </cell>
-          <cell r="B13">
-            <v>-0.04</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Cl_p</v>
-          </cell>
-          <cell r="B14">
-            <v>-0.08</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Cl_delta_a</v>
-          </cell>
-          <cell r="B15">
-            <v>-1.0000000000000001E-5</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Cn_r</v>
-          </cell>
-          <cell r="B16">
-            <v>-1.2E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Cn_delta_a</v>
-          </cell>
-          <cell r="B17">
-            <v>-8.0000000000000007E-5</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>C_Y_beta</v>
-          </cell>
-          <cell r="B18">
-            <v>-0.1</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>横力係数 (対 横滑り角 beta)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1958,7 +1958,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2295,7 +2295,7 @@
         <v>62</v>
       </c>
       <c r="B26">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">

--- a/MPC+FF/parafoil_parameters_SRC.xlsx
+++ b/MPC+FF/parafoil_parameters_SRC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coop\MATLAB Drive\senior_thesis_MAR\MPC+FF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A148954F-C270-44AB-A964-61F37770707B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132FBA6F-04DE-4899-BDB4-FBCFB02134C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="16200" windowHeight="9970" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スケーリング" sheetId="1" r:id="rId1"/>
@@ -1958,7 +1958,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2209,7 +2209,7 @@
         <v>48</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
